--- a/data/pca/factorExposure/factorExposure_2018-05-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01452655094853462</v>
+        <v>-0.02152883398360124</v>
       </c>
       <c r="C2">
-        <v>-0.02738136124354456</v>
+        <v>0.01678288300755519</v>
       </c>
       <c r="D2">
-        <v>0.002887028843560549</v>
+        <v>-0.02377326197699215</v>
       </c>
       <c r="E2">
-        <v>0.02004787026190116</v>
+        <v>0.01438456873912678</v>
       </c>
       <c r="F2">
-        <v>-0.1151638392091081</v>
+        <v>-0.008353827986092207</v>
       </c>
       <c r="G2">
-        <v>0.06658114622767938</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.04829487874805875</v>
+      </c>
+      <c r="H2">
+        <v>0.04684909980282891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08724841285973489</v>
+        <v>-0.08848065515827339</v>
       </c>
       <c r="C3">
-        <v>-0.007682992724250716</v>
+        <v>-0.01663364905469102</v>
       </c>
       <c r="D3">
-        <v>0.04923548221881959</v>
+        <v>-0.04369192379986324</v>
       </c>
       <c r="E3">
-        <v>0.08961306276701296</v>
+        <v>0.01062442464253706</v>
       </c>
       <c r="F3">
-        <v>-0.4171673881840861</v>
+        <v>-0.003537277024789346</v>
       </c>
       <c r="G3">
-        <v>0.1954864427064011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1744307069501779</v>
+      </c>
+      <c r="H3">
+        <v>0.1510762136348784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03972126029212433</v>
+        <v>-0.05006392710872071</v>
       </c>
       <c r="C4">
-        <v>-0.001613121963491188</v>
+        <v>0.0006311450709794061</v>
       </c>
       <c r="D4">
-        <v>-0.009623603351715157</v>
+        <v>-0.05236634794027191</v>
       </c>
       <c r="E4">
-        <v>-0.04532655984475484</v>
+        <v>-0.02087478105103721</v>
       </c>
       <c r="F4">
-        <v>-0.08399490105544684</v>
+        <v>-0.05050654678191724</v>
       </c>
       <c r="G4">
-        <v>0.04212654260901739</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03932680430115373</v>
+      </c>
+      <c r="H4">
+        <v>0.05819456159146347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02873465991200918</v>
+        <v>-0.03085431638428107</v>
       </c>
       <c r="C6">
-        <v>-0.01151459468262682</v>
+        <v>-0.002026053388393856</v>
       </c>
       <c r="D6">
-        <v>0.003098520982921106</v>
+        <v>-0.0564280210432743</v>
       </c>
       <c r="E6">
-        <v>-0.01992486043109384</v>
+        <v>-0.005387747466001596</v>
       </c>
       <c r="F6">
-        <v>-0.01361535837849302</v>
+        <v>-0.03115771245477542</v>
       </c>
       <c r="G6">
-        <v>-0.01024043423422479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01245439095822211</v>
+      </c>
+      <c r="H6">
+        <v>0.06146434661177609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01955515866114063</v>
+        <v>-0.02391105121634874</v>
       </c>
       <c r="C7">
-        <v>-0.007308780590365324</v>
+        <v>0.000151396718538426</v>
       </c>
       <c r="D7">
-        <v>0.01255257839419298</v>
+        <v>-0.02891277303257473</v>
       </c>
       <c r="E7">
-        <v>-0.02304329733163844</v>
+        <v>-0.0427054770978163</v>
       </c>
       <c r="F7">
-        <v>-0.04966090635499096</v>
+        <v>-0.005929253998588868</v>
       </c>
       <c r="G7">
-        <v>0.06361108702322799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02456246084695627</v>
+      </c>
+      <c r="H7">
+        <v>0.0381340097748751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01623659349431081</v>
+        <v>-0.006081337880880384</v>
       </c>
       <c r="C8">
-        <v>-0.0120318046831029</v>
+        <v>-0.002295994274306172</v>
       </c>
       <c r="D8">
-        <v>0.005205966764374907</v>
+        <v>-0.01066168305208799</v>
       </c>
       <c r="E8">
-        <v>-0.03206353529477124</v>
+        <v>-0.007204586717902164</v>
       </c>
       <c r="F8">
-        <v>-0.1003653829291316</v>
+        <v>-0.01950788915768608</v>
       </c>
       <c r="G8">
-        <v>0.05342367720814392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04186824943675738</v>
+      </c>
+      <c r="H8">
+        <v>0.04112687743381651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03294144012144242</v>
+        <v>-0.03914028873997957</v>
       </c>
       <c r="C9">
-        <v>-0.01058239624270093</v>
+        <v>-0.00186211884732919</v>
       </c>
       <c r="D9">
-        <v>-0.0009432332679841777</v>
+        <v>-0.03818618555734189</v>
       </c>
       <c r="E9">
-        <v>-0.03440172853553272</v>
+        <v>-0.009316743198579846</v>
       </c>
       <c r="F9">
-        <v>-0.09637447506732558</v>
+        <v>-0.02677632770229633</v>
       </c>
       <c r="G9">
-        <v>0.04843118165683616</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04776188350671847</v>
+      </c>
+      <c r="H9">
+        <v>0.05570003461986932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03824628584755013</v>
+        <v>-0.09177853874515383</v>
       </c>
       <c r="C10">
-        <v>0.08386737927858581</v>
+        <v>0.0009291037937532281</v>
       </c>
       <c r="D10">
-        <v>-0.06725151256282186</v>
+        <v>0.1731736898004356</v>
       </c>
       <c r="E10">
-        <v>0.1191810364395255</v>
+        <v>0.002359423288299778</v>
       </c>
       <c r="F10">
-        <v>-0.04781500119324422</v>
+        <v>0.03315542394243869</v>
       </c>
       <c r="G10">
-        <v>-0.003071494992792999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02775397655737617</v>
+      </c>
+      <c r="H10">
+        <v>0.004081173328224365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0317518295733778</v>
+        <v>-0.02675244047000201</v>
       </c>
       <c r="C11">
-        <v>-0.02910769459199481</v>
+        <v>-0.0134474989920827</v>
       </c>
       <c r="D11">
-        <v>0.01312121912739712</v>
+        <v>-0.04385578823605368</v>
       </c>
       <c r="E11">
-        <v>-0.02293483411911186</v>
+        <v>0.001135477430978195</v>
       </c>
       <c r="F11">
-        <v>-0.04404038765348047</v>
+        <v>-0.01317589222672077</v>
       </c>
       <c r="G11">
-        <v>0.02279592708888259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02601455128700301</v>
+      </c>
+      <c r="H11">
+        <v>0.04946279411893455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03932027702518556</v>
+        <v>-0.03063578542192201</v>
       </c>
       <c r="C12">
-        <v>-0.02669172322209534</v>
+        <v>-0.009795428118330713</v>
       </c>
       <c r="D12">
-        <v>0.004922829217269479</v>
+        <v>-0.04266966638533272</v>
       </c>
       <c r="E12">
-        <v>-0.03324602048138692</v>
+        <v>-0.009154986516367682</v>
       </c>
       <c r="F12">
-        <v>-0.02538198559917257</v>
+        <v>-0.01638863281803156</v>
       </c>
       <c r="G12">
-        <v>0.009069755944487421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.007827596284643506</v>
+      </c>
+      <c r="H12">
+        <v>0.02258345905117074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01394704124141775</v>
+        <v>-0.03083753265750105</v>
       </c>
       <c r="C13">
-        <v>-0.02067796499128455</v>
+        <v>0.01220228175834177</v>
       </c>
       <c r="D13">
-        <v>-0.007118569735987144</v>
+        <v>-0.01406780554093076</v>
       </c>
       <c r="E13">
-        <v>0.005358601471630678</v>
+        <v>0.01115694590239911</v>
       </c>
       <c r="F13">
-        <v>-0.08605883287358609</v>
+        <v>-0.02548542753211674</v>
       </c>
       <c r="G13">
-        <v>0.0462685058334342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06109980893128469</v>
+      </c>
+      <c r="H13">
+        <v>0.07450615925043097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01402516678362646</v>
+        <v>-0.01912001328510627</v>
       </c>
       <c r="C14">
-        <v>-9.813510135527692e-05</v>
+        <v>-3.17688513414322e-05</v>
       </c>
       <c r="D14">
-        <v>-0.002396884540046187</v>
+        <v>-0.01009841103312522</v>
       </c>
       <c r="E14">
-        <v>-0.0292096265133913</v>
+        <v>-0.01380396200745943</v>
       </c>
       <c r="F14">
-        <v>-0.06397865995640016</v>
+        <v>-0.01748808393974439</v>
       </c>
       <c r="G14">
-        <v>0.05303325607901112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04002292359563433</v>
+      </c>
+      <c r="H14">
+        <v>0.01242246100033907</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02725318095862619</v>
+        <v>-0.02658529236031564</v>
       </c>
       <c r="C16">
-        <v>-0.03003188000340412</v>
+        <v>-0.01238231726991011</v>
       </c>
       <c r="D16">
-        <v>0.005734268232871829</v>
+        <v>-0.0354706725974205</v>
       </c>
       <c r="E16">
-        <v>-0.0206041948612534</v>
+        <v>-0.003045205198842358</v>
       </c>
       <c r="F16">
-        <v>-0.04833687201122407</v>
+        <v>-0.01708849558202515</v>
       </c>
       <c r="G16">
-        <v>0.02346767600397825</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02345602557806703</v>
+      </c>
+      <c r="H16">
+        <v>0.0370487819065272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03085093796559274</v>
+        <v>-0.03620517971507559</v>
       </c>
       <c r="C19">
-        <v>-0.02425989209507885</v>
+        <v>-0.001822331705684715</v>
       </c>
       <c r="D19">
-        <v>0.008370032897629885</v>
+        <v>-0.02953253936885469</v>
       </c>
       <c r="E19">
-        <v>-0.01756123724159337</v>
+        <v>-0.006800846338367531</v>
       </c>
       <c r="F19">
-        <v>-0.1038252149705998</v>
+        <v>-0.02891129810502329</v>
       </c>
       <c r="G19">
-        <v>0.06465719233385807</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05566881896184327</v>
+      </c>
+      <c r="H19">
+        <v>0.06209377357276561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003445791330554046</v>
+        <v>-0.01354652320348219</v>
       </c>
       <c r="C20">
-        <v>-0.004344831092933718</v>
+        <v>0.00388789225346583</v>
       </c>
       <c r="D20">
-        <v>-0.002599735368721956</v>
+        <v>-0.01786198402561184</v>
       </c>
       <c r="E20">
-        <v>-0.01997617869090568</v>
+        <v>-0.00583325553101811</v>
       </c>
       <c r="F20">
-        <v>-0.07904879617142836</v>
+        <v>-0.01873347684800961</v>
       </c>
       <c r="G20">
-        <v>0.07510798049866924</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05233443061337699</v>
+      </c>
+      <c r="H20">
+        <v>0.02766978164483589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.002660363855408445</v>
+        <v>-0.01873878478999296</v>
       </c>
       <c r="C21">
-        <v>0.01454007230867304</v>
+        <v>0.005319995070514244</v>
       </c>
       <c r="D21">
-        <v>0.0178931720645292</v>
+        <v>-0.01863355486325316</v>
       </c>
       <c r="E21">
-        <v>-0.03336539047293206</v>
+        <v>-0.0195508101790347</v>
       </c>
       <c r="F21">
-        <v>-0.04574989397007269</v>
+        <v>-0.01420285364235916</v>
       </c>
       <c r="G21">
-        <v>0.01957258089981773</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04841922021818384</v>
+      </c>
+      <c r="H21">
+        <v>0.04122116626586312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02795183875952519</v>
+        <v>-0.02289933174837573</v>
       </c>
       <c r="C24">
-        <v>-0.02408907796480216</v>
+        <v>-0.00701023122776528</v>
       </c>
       <c r="D24">
-        <v>-0.002356621419522491</v>
+        <v>-0.03845143371865423</v>
       </c>
       <c r="E24">
-        <v>-0.009625480731286443</v>
+        <v>-0.001823582009314612</v>
       </c>
       <c r="F24">
-        <v>-0.04501558624490887</v>
+        <v>-0.01240606942037085</v>
       </c>
       <c r="G24">
-        <v>0.02188349454469717</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01830519633274404</v>
+      </c>
+      <c r="H24">
+        <v>0.04642843761794527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02901103836627245</v>
+        <v>-0.03492509268831367</v>
       </c>
       <c r="C25">
-        <v>-0.01925216185433076</v>
+        <v>-0.005064105982379237</v>
       </c>
       <c r="D25">
-        <v>0.01220118684516949</v>
+        <v>-0.03863512058269212</v>
       </c>
       <c r="E25">
-        <v>-0.02317861584797413</v>
+        <v>-0.006290077952721605</v>
       </c>
       <c r="F25">
-        <v>-0.05159299592579794</v>
+        <v>-0.02049427823006985</v>
       </c>
       <c r="G25">
-        <v>0.0120832163769562</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02099220525597054</v>
+      </c>
+      <c r="H25">
+        <v>0.04277879825409911</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02026403988251998</v>
+        <v>-0.01818470736777607</v>
       </c>
       <c r="C26">
-        <v>-0.01585543770408068</v>
+        <v>0.01776331164864664</v>
       </c>
       <c r="D26">
-        <v>0.01922954838459953</v>
+        <v>-0.008460506274133216</v>
       </c>
       <c r="E26">
-        <v>0.002173316437841938</v>
+        <v>-0.0005490735434342722</v>
       </c>
       <c r="F26">
-        <v>-0.06500220373720125</v>
+        <v>-0.003292649206878579</v>
       </c>
       <c r="G26">
-        <v>0.04373195389619003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02945569312891135</v>
+      </c>
+      <c r="H26">
+        <v>0.02432307014945272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.05214143086431098</v>
+        <v>-0.02188598717302744</v>
       </c>
       <c r="C27">
-        <v>-0.01824823267436786</v>
+        <v>-0.008156348135088722</v>
       </c>
       <c r="D27">
-        <v>-0.0275098408585881</v>
+        <v>-0.01116401644114244</v>
       </c>
       <c r="E27">
-        <v>-0.03443681084674134</v>
+        <v>-0.00316094290292947</v>
       </c>
       <c r="F27">
-        <v>-0.04415977240867935</v>
+        <v>-0.01377456218600134</v>
       </c>
       <c r="G27">
-        <v>0.05077774051790035</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.00925824013171115</v>
+      </c>
+      <c r="H27">
+        <v>-0.004281527924169214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06287902842188305</v>
+        <v>-0.1376332549525387</v>
       </c>
       <c r="C28">
-        <v>0.1128509308027261</v>
+        <v>0.01063142037339712</v>
       </c>
       <c r="D28">
-        <v>-0.0971233702189242</v>
+        <v>0.2301204695675437</v>
       </c>
       <c r="E28">
-        <v>0.1480263043412394</v>
+        <v>-0.005549920839007649</v>
       </c>
       <c r="F28">
-        <v>-0.05262988860311534</v>
+        <v>0.02807824743916547</v>
       </c>
       <c r="G28">
-        <v>-0.002157916357396111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01448141386310723</v>
+      </c>
+      <c r="H28">
+        <v>-0.005839090872337418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0192592978748144</v>
+        <v>-0.02361213792249607</v>
       </c>
       <c r="C29">
-        <v>-0.001019360073425422</v>
+        <v>-0.001731503053765132</v>
       </c>
       <c r="D29">
-        <v>-0.003220742569965732</v>
+        <v>-0.01040309863440742</v>
       </c>
       <c r="E29">
-        <v>-0.03661999060933992</v>
+        <v>-0.01422276637221</v>
       </c>
       <c r="F29">
-        <v>-0.06156575440883971</v>
+        <v>-0.01878446619231771</v>
       </c>
       <c r="G29">
-        <v>0.04193150128468508</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03891669544034209</v>
+      </c>
+      <c r="H29">
+        <v>0.003937750962294134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08075482538365353</v>
+        <v>-0.06073235228323001</v>
       </c>
       <c r="C30">
-        <v>-0.05568642565711442</v>
+        <v>-0.00368646886254607</v>
       </c>
       <c r="D30">
-        <v>-0.008310624936194706</v>
+        <v>-0.08347619891269005</v>
       </c>
       <c r="E30">
-        <v>-0.05234229549870779</v>
+        <v>0.02969413076738998</v>
       </c>
       <c r="F30">
-        <v>-0.1048497658513373</v>
+        <v>-0.05261589304058815</v>
       </c>
       <c r="G30">
-        <v>0.06612276478646233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.05911661204643852</v>
+      </c>
+      <c r="H30">
+        <v>0.07920666546176031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0589750755495293</v>
+        <v>-0.05217876455242461</v>
       </c>
       <c r="C31">
-        <v>-0.03035315350035356</v>
+        <v>-0.01194105871022572</v>
       </c>
       <c r="D31">
-        <v>0.003687883313410899</v>
+        <v>-0.01829569655045234</v>
       </c>
       <c r="E31">
-        <v>-0.007948984252072952</v>
+        <v>0.004085567710560753</v>
       </c>
       <c r="F31">
-        <v>-0.05139613501165495</v>
+        <v>-0.005576070336813007</v>
       </c>
       <c r="G31">
-        <v>0.04819801526819131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01780977359966701</v>
+      </c>
+      <c r="H31">
+        <v>0.003521723795362218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01682475069774858</v>
+        <v>-0.01209781413763908</v>
       </c>
       <c r="C32">
-        <v>-0.01221077218041966</v>
+        <v>-0.01386139508996819</v>
       </c>
       <c r="D32">
-        <v>0.008013679157446208</v>
+        <v>-0.008121983066526998</v>
       </c>
       <c r="E32">
-        <v>-0.06286118324199201</v>
+        <v>-0.03034104915607098</v>
       </c>
       <c r="F32">
-        <v>-0.07502658724901319</v>
+        <v>-0.04111907034067151</v>
       </c>
       <c r="G32">
-        <v>0.04141757217769317</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.02816076673193138</v>
+      </c>
+      <c r="H32">
+        <v>0.05805010641689727</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04145408095114258</v>
+        <v>-0.0399567994470815</v>
       </c>
       <c r="C33">
-        <v>-0.03614482705319772</v>
+        <v>-0.002978033825339692</v>
       </c>
       <c r="D33">
-        <v>0.0304844707807195</v>
+        <v>-0.03351568084747474</v>
       </c>
       <c r="E33">
-        <v>-0.01836851212378796</v>
+        <v>0.0200253143194581</v>
       </c>
       <c r="F33">
-        <v>-0.08442638561580368</v>
+        <v>-0.003477300419216317</v>
       </c>
       <c r="G33">
-        <v>0.06044872265910194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.045489305005665</v>
+      </c>
+      <c r="H33">
+        <v>0.04968975105991566</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0277933942515643</v>
+        <v>-0.03119876491876392</v>
       </c>
       <c r="C34">
-        <v>-0.02448601148880299</v>
+        <v>-0.02069999408531862</v>
       </c>
       <c r="D34">
-        <v>0.00676636461110181</v>
+        <v>-0.0364103411064667</v>
       </c>
       <c r="E34">
-        <v>-0.02834667508523142</v>
+        <v>-0.01297400234098657</v>
       </c>
       <c r="F34">
-        <v>-0.05409540281598717</v>
+        <v>-0.01890927727922615</v>
       </c>
       <c r="G34">
-        <v>0.01631056390264028</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01490231772952848</v>
+      </c>
+      <c r="H34">
+        <v>0.03637267341588481</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01499343126567049</v>
+        <v>-0.01898588232780333</v>
       </c>
       <c r="C36">
-        <v>-0.0008909558597465802</v>
+        <v>0.005657256536369536</v>
       </c>
       <c r="D36">
-        <v>0.003590920040427318</v>
+        <v>-0.002102111835891975</v>
       </c>
       <c r="E36">
-        <v>-0.02126609523718857</v>
+        <v>-0.008060287871135873</v>
       </c>
       <c r="F36">
-        <v>-0.03801931038715992</v>
+        <v>-0.00418672151541327</v>
       </c>
       <c r="G36">
-        <v>0.03155014870196373</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02101454687916724</v>
+      </c>
+      <c r="H36">
+        <v>0.01607572474106028</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.002913178567208187</v>
+        <v>-0.02821424975617047</v>
       </c>
       <c r="C38">
-        <v>0.005119523487822839</v>
+        <v>-0.01676789615498698</v>
       </c>
       <c r="D38">
-        <v>0.01522044030151873</v>
+        <v>-0.007509998855948474</v>
       </c>
       <c r="E38">
-        <v>0.02868890654806016</v>
+        <v>-0.0001840870334387775</v>
       </c>
       <c r="F38">
-        <v>-0.03745797885633319</v>
+        <v>-0.0114653684660173</v>
       </c>
       <c r="G38">
-        <v>0.01438304511304183</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02348062658994879</v>
+      </c>
+      <c r="H38">
+        <v>0.04486600369812756</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02914008706729487</v>
+        <v>-0.02572088240041035</v>
       </c>
       <c r="C39">
-        <v>-0.04661660685294441</v>
+        <v>-0.0111710438891249</v>
       </c>
       <c r="D39">
-        <v>0.01118929031770451</v>
+        <v>-0.08380755384163972</v>
       </c>
       <c r="E39">
-        <v>-0.02547788402220301</v>
+        <v>0.005492364182391324</v>
       </c>
       <c r="F39">
-        <v>-0.06463766554657993</v>
+        <v>-0.02136759194453118</v>
       </c>
       <c r="G39">
-        <v>0.02951680583715027</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04176624523106989</v>
+      </c>
+      <c r="H39">
+        <v>0.07788294919835423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03158694505050649</v>
+        <v>-0.03368389949834494</v>
       </c>
       <c r="C40">
-        <v>-0.06699127258237904</v>
+        <v>-0.002872338512440462</v>
       </c>
       <c r="D40">
-        <v>-0.02272391996218306</v>
+        <v>-0.02633166606204517</v>
       </c>
       <c r="E40">
-        <v>0.00923264536492464</v>
+        <v>0.02364109034038872</v>
       </c>
       <c r="F40">
-        <v>-0.08363285612875879</v>
+        <v>-0.03674123314068976</v>
       </c>
       <c r="G40">
-        <v>0.05157100488447922</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02165447471079116</v>
+      </c>
+      <c r="H40">
+        <v>0.06646675702921831</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.001622809918714756</v>
+        <v>-0.009722674805412767</v>
       </c>
       <c r="C41">
-        <v>0.001729318167195831</v>
+        <v>0.003434608900796816</v>
       </c>
       <c r="D41">
-        <v>0.00736467091204974</v>
+        <v>0.01547502694786943</v>
       </c>
       <c r="E41">
-        <v>-0.001766577534465639</v>
+        <v>0.0002566555173768361</v>
       </c>
       <c r="F41">
-        <v>-0.01970101357829772</v>
+        <v>0.002181919813069002</v>
       </c>
       <c r="G41">
-        <v>0.04886828498661752</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.002085881833058519</v>
+      </c>
+      <c r="H41">
+        <v>-0.005598839239710339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3577838726447972</v>
+        <v>-0.1909240556291033</v>
       </c>
       <c r="C42">
-        <v>0.08312759537842257</v>
+        <v>0.0563041236879598</v>
       </c>
       <c r="D42">
-        <v>0.7680511054506143</v>
+        <v>-0.2405410425696764</v>
       </c>
       <c r="E42">
-        <v>0.3710138570157339</v>
+        <v>0.2083642426214882</v>
       </c>
       <c r="F42">
-        <v>0.2721934797534171</v>
+        <v>0.905154235936109</v>
       </c>
       <c r="G42">
-        <v>0.1623445002952886</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.1426372803664868</v>
+      </c>
+      <c r="H42">
+        <v>0.008260514802854332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0005407500326212553</v>
+        <v>-0.01389570415608917</v>
       </c>
       <c r="C43">
-        <v>0.001903339138112879</v>
+        <v>0.00335456208739231</v>
       </c>
       <c r="D43">
-        <v>0.01107480341557847</v>
+        <v>0.01537538451771783</v>
       </c>
       <c r="E43">
-        <v>-0.001514428979984524</v>
+        <v>0.003394460080984697</v>
       </c>
       <c r="F43">
-        <v>-0.03556206278977111</v>
+        <v>0.004240229023873721</v>
       </c>
       <c r="G43">
-        <v>0.04517962950801121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.002521857756574357</v>
+      </c>
+      <c r="H43">
+        <v>0.008749224254450917</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01614111637877848</v>
+        <v>-0.02340232893021271</v>
       </c>
       <c r="C44">
-        <v>-0.0003381022393520283</v>
+        <v>-0.006771245977014707</v>
       </c>
       <c r="D44">
-        <v>0.006909199453226601</v>
+        <v>-0.0291971399982116</v>
       </c>
       <c r="E44">
-        <v>0.004935726633416211</v>
+        <v>-0.008155748881116661</v>
       </c>
       <c r="F44">
-        <v>-0.1111317208786848</v>
+        <v>-0.005427370433345764</v>
       </c>
       <c r="G44">
-        <v>0.08332265423400188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04267120616604188</v>
+      </c>
+      <c r="H44">
+        <v>0.06477603872665375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02043694560212982</v>
+        <v>-0.01715494783262063</v>
       </c>
       <c r="C46">
-        <v>-0.02027898929957209</v>
+        <v>0.004084669103820325</v>
       </c>
       <c r="D46">
-        <v>0.01598809552915481</v>
+        <v>-0.01195268450371404</v>
       </c>
       <c r="E46">
-        <v>-0.03337416471983421</v>
+        <v>0.0006108576942812324</v>
       </c>
       <c r="F46">
-        <v>-0.07434022447347463</v>
+        <v>-0.01364079100801893</v>
       </c>
       <c r="G46">
-        <v>0.05753211178067197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04372297604061641</v>
+      </c>
+      <c r="H46">
+        <v>0.00696475859376054</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09290436430787391</v>
+        <v>-0.07705153407027199</v>
       </c>
       <c r="C47">
-        <v>-0.0331325947663704</v>
+        <v>-0.02984434972512122</v>
       </c>
       <c r="D47">
-        <v>-0.006277189953279443</v>
+        <v>-0.0414690985225516</v>
       </c>
       <c r="E47">
-        <v>-0.02761291965170814</v>
+        <v>-0.002019444701329972</v>
       </c>
       <c r="F47">
-        <v>-0.03809733429103308</v>
+        <v>-0.01533387985234926</v>
       </c>
       <c r="G47">
-        <v>0.07580135819083038</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01034019994697566</v>
+      </c>
+      <c r="H47">
+        <v>-0.0222966567484573</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01799542337247776</v>
+        <v>-0.02198673391207815</v>
       </c>
       <c r="C48">
-        <v>-0.009556966748309647</v>
+        <v>-0.005982744008390215</v>
       </c>
       <c r="D48">
-        <v>0.007887890759114932</v>
+        <v>-0.008462587854901357</v>
       </c>
       <c r="E48">
-        <v>-0.02094453334428793</v>
+        <v>-0.001218951385904995</v>
       </c>
       <c r="F48">
-        <v>-0.04412223867248675</v>
+        <v>-0.009356628468407175</v>
       </c>
       <c r="G48">
-        <v>0.02382012478024675</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02327758801575109</v>
+      </c>
+      <c r="H48">
+        <v>0.0182337099810257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08533945629220388</v>
+        <v>-0.07438693415828158</v>
       </c>
       <c r="C50">
-        <v>-0.03112293041349164</v>
+        <v>-0.02663265610733055</v>
       </c>
       <c r="D50">
-        <v>0.01057287748101962</v>
+        <v>-0.03955901981086934</v>
       </c>
       <c r="E50">
-        <v>-0.03023187079426553</v>
+        <v>-0.0152828686179913</v>
       </c>
       <c r="F50">
-        <v>-0.05093934645796739</v>
+        <v>-0.01004820864052438</v>
       </c>
       <c r="G50">
-        <v>0.03843059824375683</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.006922283119809031</v>
+      </c>
+      <c r="H50">
+        <v>-0.005921637295111563</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01684881927118106</v>
+        <v>-0.02307456868560301</v>
       </c>
       <c r="C51">
-        <v>0.007502166416123552</v>
+        <v>0.0001754151051153951</v>
       </c>
       <c r="D51">
-        <v>-0.005659996201255965</v>
+        <v>-0.002236295909458529</v>
       </c>
       <c r="E51">
-        <v>0.01411002830717493</v>
+        <v>-0.006835203951132439</v>
       </c>
       <c r="F51">
-        <v>-0.09642318770548167</v>
+        <v>-0.006694005378476284</v>
       </c>
       <c r="G51">
-        <v>0.05951641462855858</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.03660408519928717</v>
+      </c>
+      <c r="H51">
+        <v>0.04992682144074238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1015842313100101</v>
+        <v>-0.09649122783526905</v>
       </c>
       <c r="C53">
-        <v>-0.04464431624729774</v>
+        <v>-0.03911671056356164</v>
       </c>
       <c r="D53">
-        <v>-0.00513212661711537</v>
+        <v>-0.07491940306853632</v>
       </c>
       <c r="E53">
-        <v>-0.04566940629122237</v>
+        <v>-0.004107281159053455</v>
       </c>
       <c r="F53">
-        <v>0.02451798913626334</v>
+        <v>-0.03022608400022093</v>
       </c>
       <c r="G53">
-        <v>0.01418128586706697</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.04059480635857918</v>
+      </c>
+      <c r="H53">
+        <v>-0.03368903921421817</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01630820356039758</v>
+        <v>-0.0253875384142917</v>
       </c>
       <c r="C54">
-        <v>0.004137621773752138</v>
+        <v>-0.00827050641122349</v>
       </c>
       <c r="D54">
-        <v>-0.004773929040210448</v>
+        <v>0.01100456239332817</v>
       </c>
       <c r="E54">
-        <v>-0.03363779566643262</v>
+        <v>-0.008484654920989982</v>
       </c>
       <c r="F54">
-        <v>-0.0565533187557864</v>
+        <v>-0.01124762819556201</v>
       </c>
       <c r="G54">
-        <v>0.04532149084921545</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03981433310332894</v>
+      </c>
+      <c r="H54">
+        <v>0.0004893809631815514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1008527108600875</v>
+        <v>-0.08078721787821357</v>
       </c>
       <c r="C55">
-        <v>-0.02434498683623489</v>
+        <v>-0.03504806206772914</v>
       </c>
       <c r="D55">
-        <v>0.0008103799214454441</v>
+        <v>-0.07152212913764892</v>
       </c>
       <c r="E55">
-        <v>-0.06384486794043159</v>
+        <v>-0.01355753954383209</v>
       </c>
       <c r="F55">
-        <v>0.01448228077966669</v>
+        <v>-0.02234203674450648</v>
       </c>
       <c r="G55">
-        <v>0.0489409393549498</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01732701095637601</v>
+      </c>
+      <c r="H55">
+        <v>-0.04401830088306241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1439773323681092</v>
+        <v>-0.1320881480585314</v>
       </c>
       <c r="C56">
-        <v>-0.06173552974547367</v>
+        <v>-0.05791565619171971</v>
       </c>
       <c r="D56">
-        <v>-0.04252287638771689</v>
+        <v>-0.09067068968499131</v>
       </c>
       <c r="E56">
-        <v>-0.07372465663446798</v>
+        <v>-0.005220171341078396</v>
       </c>
       <c r="F56">
-        <v>0.0612558827209081</v>
+        <v>-0.05374912984430862</v>
       </c>
       <c r="G56">
-        <v>-0.02850829379415171</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07785472076187487</v>
+      </c>
+      <c r="H56">
+        <v>-0.05721747094187275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04347373775421592</v>
+        <v>-0.03974393550914985</v>
       </c>
       <c r="C57">
-        <v>-0.01281908273257694</v>
+        <v>0.01072168830075978</v>
       </c>
       <c r="D57">
-        <v>0.01249801350667061</v>
+        <v>-0.02798617195947114</v>
       </c>
       <c r="E57">
-        <v>0.01515181965410213</v>
+        <v>0.008277398342814785</v>
       </c>
       <c r="F57">
-        <v>-0.05264105675396435</v>
+        <v>-0.009625445243514143</v>
       </c>
       <c r="G57">
-        <v>0.05298109836629157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.07394844914434952</v>
+      </c>
+      <c r="H57">
+        <v>0.04789932051934855</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2070454855599618</v>
+        <v>-0.1548086939147667</v>
       </c>
       <c r="C58">
-        <v>-0.133741734762977</v>
+        <v>-0.05114249228020545</v>
       </c>
       <c r="D58">
-        <v>0.07186287983864398</v>
+        <v>-0.1325248598871837</v>
       </c>
       <c r="E58">
-        <v>-0.06780511391316585</v>
+        <v>0.2074264309289021</v>
       </c>
       <c r="F58">
-        <v>-0.4139665991294055</v>
+        <v>0.02899105536702541</v>
       </c>
       <c r="G58">
-        <v>0.02473436101465653</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8137055100601339</v>
+      </c>
+      <c r="H58">
+        <v>-0.4058874986308852</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05560103675922114</v>
+        <v>-0.1506931907482125</v>
       </c>
       <c r="C59">
-        <v>0.06377065863718805</v>
+        <v>0.001960448568631787</v>
       </c>
       <c r="D59">
-        <v>-0.1097965784781193</v>
+        <v>0.2315088645414963</v>
       </c>
       <c r="E59">
-        <v>0.1438984893175315</v>
+        <v>0.01323745897370829</v>
       </c>
       <c r="F59">
-        <v>-0.0630497198873618</v>
+        <v>0.003227269031367382</v>
       </c>
       <c r="G59">
-        <v>-0.02342275272017092</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01507037824652543</v>
+      </c>
+      <c r="H59">
+        <v>0.0288619415698539</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1529859893202784</v>
+        <v>-0.1866045794475212</v>
       </c>
       <c r="C60">
-        <v>-0.09065418494522007</v>
+        <v>-0.02883001089464256</v>
       </c>
       <c r="D60">
-        <v>0.007313438616956399</v>
+        <v>-0.01513620264383169</v>
       </c>
       <c r="E60">
-        <v>0.1097729399757476</v>
+        <v>0.05075201426802348</v>
       </c>
       <c r="F60">
-        <v>-0.1597958584671575</v>
+        <v>-0.05449690143428508</v>
       </c>
       <c r="G60">
-        <v>-0.3014073887565613</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.03359776397816366</v>
+      </c>
+      <c r="H60">
+        <v>0.3700746398416008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02159444668827826</v>
+        <v>-0.02802933511608647</v>
       </c>
       <c r="C61">
-        <v>-0.02588521226467788</v>
+        <v>-0.01263668885444689</v>
       </c>
       <c r="D61">
-        <v>0.01088795769450434</v>
+        <v>-0.05028019055300623</v>
       </c>
       <c r="E61">
-        <v>-0.01792493640622367</v>
+        <v>-0.002749158741228713</v>
       </c>
       <c r="F61">
-        <v>-0.03011375271889053</v>
+        <v>-0.02276266326175876</v>
       </c>
       <c r="G61">
-        <v>0.01741709637342745</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02510999850582128</v>
+      </c>
+      <c r="H61">
+        <v>0.05786716787629775</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.009536319923499096</v>
+        <v>-0.01460254955550646</v>
       </c>
       <c r="C63">
-        <v>-0.01650482387837152</v>
+        <v>0.0006316663732763892</v>
       </c>
       <c r="D63">
-        <v>0.01806591802602904</v>
+        <v>-0.0197333123741824</v>
       </c>
       <c r="E63">
-        <v>-0.02361842556535377</v>
+        <v>-0.005442639587467793</v>
       </c>
       <c r="F63">
-        <v>-0.01787967089687269</v>
+        <v>-0.01210187564654542</v>
       </c>
       <c r="G63">
-        <v>0.07150151234051011</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01693141735756548</v>
+      </c>
+      <c r="H63">
+        <v>0.01249410212364299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03641506378135534</v>
+        <v>-0.04391231495963052</v>
       </c>
       <c r="C64">
-        <v>-0.0004056884315067476</v>
+        <v>-0.01187063993137652</v>
       </c>
       <c r="D64">
-        <v>-0.0009102950404296862</v>
+        <v>-0.03402353038156544</v>
       </c>
       <c r="E64">
-        <v>-0.05305948702578361</v>
+        <v>-0.01193001436829752</v>
       </c>
       <c r="F64">
-        <v>-0.04283523219388578</v>
+        <v>-0.005912519407909506</v>
       </c>
       <c r="G64">
-        <v>0.05351118772652325</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.005832422363860788</v>
+      </c>
+      <c r="H64">
+        <v>0.04195933858896497</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03171111341515591</v>
+        <v>-0.04015575663067818</v>
       </c>
       <c r="C65">
-        <v>-0.01340673324986416</v>
+        <v>-0.004094889567031449</v>
       </c>
       <c r="D65">
-        <v>0.003333272119379111</v>
+        <v>-0.0673508050545342</v>
       </c>
       <c r="E65">
-        <v>-0.02184634715468758</v>
+        <v>-0.008829007812666292</v>
       </c>
       <c r="F65">
-        <v>-0.008834700221384406</v>
+        <v>-0.03679918891086519</v>
       </c>
       <c r="G65">
-        <v>-0.01606936449782016</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.001302068467781261</v>
+      </c>
+      <c r="H65">
+        <v>0.07150740601672101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03285159579200735</v>
+        <v>-0.03666127799207155</v>
       </c>
       <c r="C66">
-        <v>-0.05921886382901903</v>
+        <v>-0.01913899328117255</v>
       </c>
       <c r="D66">
-        <v>0.01008161880221755</v>
+        <v>-0.1028245106520274</v>
       </c>
       <c r="E66">
-        <v>-0.03661885913065516</v>
+        <v>0.007129100712022439</v>
       </c>
       <c r="F66">
-        <v>-0.04944255573627318</v>
+        <v>-0.04194254992993308</v>
       </c>
       <c r="G66">
-        <v>0.01622570989479154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03828291880220965</v>
+      </c>
+      <c r="H66">
+        <v>0.08266149949446634</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01249448278955097</v>
+        <v>-0.04769339511023426</v>
       </c>
       <c r="C67">
-        <v>-0.001311410894876327</v>
+        <v>-0.01861429013118801</v>
       </c>
       <c r="D67">
-        <v>0.007450631097598466</v>
+        <v>-0.007008099496430234</v>
       </c>
       <c r="E67">
-        <v>0.03327652798265146</v>
+        <v>0.003121920072338452</v>
       </c>
       <c r="F67">
-        <v>-0.0182627906020684</v>
+        <v>-0.020104167983197</v>
       </c>
       <c r="G67">
-        <v>0.005142683561475896</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01167220584001815</v>
+      </c>
+      <c r="H67">
+        <v>0.04537003808822754</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07352794189967944</v>
+        <v>-0.1423571487989325</v>
       </c>
       <c r="C68">
-        <v>0.0918735375955481</v>
+        <v>0.02597727442622554</v>
       </c>
       <c r="D68">
-        <v>-0.1221821975658214</v>
+        <v>0.242070483756764</v>
       </c>
       <c r="E68">
-        <v>0.1428428187747347</v>
+        <v>0.009017872847056208</v>
       </c>
       <c r="F68">
-        <v>-0.05582644304197804</v>
+        <v>0.03707061560481591</v>
       </c>
       <c r="G68">
-        <v>-0.06966728569528509</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02353502316374812</v>
+      </c>
+      <c r="H68">
+        <v>-0.04780024648800383</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0679486877544057</v>
+        <v>-0.06382882925759482</v>
       </c>
       <c r="C69">
-        <v>-0.0409242399791749</v>
+        <v>-0.03028467815470027</v>
       </c>
       <c r="D69">
-        <v>-0.01329819739639561</v>
+        <v>-0.0403421912256391</v>
       </c>
       <c r="E69">
-        <v>-0.01725521994954372</v>
+        <v>-0.001349440130704369</v>
       </c>
       <c r="F69">
-        <v>-0.02176634442303793</v>
+        <v>-0.02662506568874825</v>
       </c>
       <c r="G69">
-        <v>0.07133202544691608</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.014269465748955</v>
+      </c>
+      <c r="H69">
+        <v>0.007649155279016289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07676685886076909</v>
+        <v>-0.1377909666807113</v>
       </c>
       <c r="C71">
-        <v>0.09334654556668943</v>
+        <v>0.01246751727181386</v>
       </c>
       <c r="D71">
-        <v>-0.1074818450415952</v>
+        <v>0.2093589993442396</v>
       </c>
       <c r="E71">
-        <v>0.1998383214401513</v>
+        <v>0.01573660831023666</v>
       </c>
       <c r="F71">
-        <v>-0.05174296266159281</v>
+        <v>0.04418543170169036</v>
       </c>
       <c r="G71">
-        <v>0.003251278022570435</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02838566691501581</v>
+      </c>
+      <c r="H71">
+        <v>-0.02083889749885594</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1066833678416377</v>
+        <v>-0.082273007897914</v>
       </c>
       <c r="C72">
-        <v>-0.07472582586287062</v>
+        <v>-0.04115597314770195</v>
       </c>
       <c r="D72">
-        <v>-0.04226038382980325</v>
+        <v>-0.06783982823784547</v>
       </c>
       <c r="E72">
-        <v>-0.03717878676948766</v>
+        <v>0.01434773884714703</v>
       </c>
       <c r="F72">
-        <v>-0.0894732976309317</v>
+        <v>-0.07427994640418487</v>
       </c>
       <c r="G72">
-        <v>-0.0912581244318935</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02847079203957972</v>
+      </c>
+      <c r="H72">
+        <v>0.1326373175248658</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2204159710784323</v>
+        <v>-0.2574803121941996</v>
       </c>
       <c r="C73">
-        <v>-0.1244411354273556</v>
+        <v>-0.04468946977951985</v>
       </c>
       <c r="D73">
-        <v>0.01407776527926162</v>
+        <v>-0.07149325108549459</v>
       </c>
       <c r="E73">
-        <v>0.1982796550352439</v>
+        <v>0.09151797039032861</v>
       </c>
       <c r="F73">
-        <v>-0.1816759170230775</v>
+        <v>-0.0632703567679591</v>
       </c>
       <c r="G73">
-        <v>-0.4327568937951068</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.05065193325184586</v>
+      </c>
+      <c r="H73">
+        <v>0.4776996914122536</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1366586205805992</v>
+        <v>-0.126158005232387</v>
       </c>
       <c r="C74">
-        <v>-0.03740474850020508</v>
+        <v>-0.05656258420491053</v>
       </c>
       <c r="D74">
-        <v>-0.0128863093653691</v>
+        <v>-0.09722444709675707</v>
       </c>
       <c r="E74">
-        <v>-0.04558559269290925</v>
+        <v>-0.007368920324678742</v>
       </c>
       <c r="F74">
-        <v>0.07487911878097821</v>
+        <v>-0.03600228957862037</v>
       </c>
       <c r="G74">
-        <v>-0.0008890400494295758</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.06277909400187065</v>
+      </c>
+      <c r="H74">
+        <v>-0.02506954387870167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2277161289024565</v>
+        <v>-0.2374893968322869</v>
       </c>
       <c r="C75">
-        <v>-0.09669791534443888</v>
+        <v>-0.1036238420281557</v>
       </c>
       <c r="D75">
-        <v>-0.09057674241242177</v>
+        <v>-0.1437666989684341</v>
       </c>
       <c r="E75">
-        <v>-0.1051272579037433</v>
+        <v>0.009352975814124528</v>
       </c>
       <c r="F75">
-        <v>0.08079205044209749</v>
+        <v>-0.09868135989575705</v>
       </c>
       <c r="G75">
-        <v>0.003972217093119293</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1243383256279721</v>
+      </c>
+      <c r="H75">
+        <v>-0.1301747094959257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2779738286151571</v>
+        <v>-0.208411153224187</v>
       </c>
       <c r="C76">
-        <v>-0.09377333967823775</v>
+        <v>-0.09706750855271216</v>
       </c>
       <c r="D76">
-        <v>-0.1182915569694253</v>
+        <v>-0.1414074583197879</v>
       </c>
       <c r="E76">
-        <v>-0.1550752304610541</v>
+        <v>-0.03705531530547893</v>
       </c>
       <c r="F76">
-        <v>0.1636956443443226</v>
+        <v>-0.09381830440988419</v>
       </c>
       <c r="G76">
-        <v>-0.009025281725786751</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1284515909734011</v>
+      </c>
+      <c r="H76">
+        <v>-0.1280153249507736</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1257220563476511</v>
+        <v>-0.0774488227551771</v>
       </c>
       <c r="C77">
-        <v>-0.05672981882466185</v>
+        <v>-0.01550283095367385</v>
       </c>
       <c r="D77">
-        <v>0.07592289696155627</v>
+        <v>-0.06679154320611322</v>
       </c>
       <c r="E77">
-        <v>-0.03966273682452586</v>
+        <v>0.01135610221877902</v>
       </c>
       <c r="F77">
-        <v>-0.1975838130301488</v>
+        <v>0.00820946906456458</v>
       </c>
       <c r="G77">
-        <v>0.2246501429302398</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.08652575803089095</v>
+      </c>
+      <c r="H77">
+        <v>0.01386439715965778</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07323287428307246</v>
+        <v>-0.04702582182010207</v>
       </c>
       <c r="C78">
-        <v>-0.05009114438434523</v>
+        <v>-0.01624957821047071</v>
       </c>
       <c r="D78">
-        <v>0.03988504223295545</v>
+        <v>-0.05850680277541546</v>
       </c>
       <c r="E78">
-        <v>-0.07014144947905333</v>
+        <v>-0.003695836384094468</v>
       </c>
       <c r="F78">
-        <v>-0.1153111601050866</v>
+        <v>-0.02592347488963603</v>
       </c>
       <c r="G78">
-        <v>0.03328838729465426</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06567399046236491</v>
+      </c>
+      <c r="H78">
+        <v>0.08553977816515514</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2437547105009678</v>
+        <v>-0.143531923160515</v>
       </c>
       <c r="C80">
-        <v>0.8288122168474058</v>
+        <v>-0.03573314055657448</v>
       </c>
       <c r="D80">
-        <v>0.0835914888028368</v>
+        <v>-0.05834233333681263</v>
       </c>
       <c r="E80">
-        <v>-0.4294827454690184</v>
+        <v>-0.9375724374753067</v>
       </c>
       <c r="F80">
-        <v>-0.09574230229424419</v>
+        <v>0.2054827592859311</v>
       </c>
       <c r="G80">
-        <v>-0.1443076104506607</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1609551609573439</v>
+      </c>
+      <c r="H80">
+        <v>-0.0020042427754856</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1767535828503866</v>
+        <v>-0.160754089396025</v>
       </c>
       <c r="C81">
-        <v>-0.06862646449745881</v>
+        <v>-0.06844729718234317</v>
       </c>
       <c r="D81">
-        <v>-0.08210726010537238</v>
+        <v>-0.09228858015044483</v>
       </c>
       <c r="E81">
-        <v>-0.09397987971704731</v>
+        <v>-0.01005509592067714</v>
       </c>
       <c r="F81">
-        <v>0.1013323541087312</v>
+        <v>-0.06650632211146905</v>
       </c>
       <c r="G81">
-        <v>-0.01851940056769065</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.0869309963093096</v>
+      </c>
+      <c r="H81">
+        <v>-0.08549173909523772</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03560510838916382</v>
+        <v>-0.03527892581200279</v>
       </c>
       <c r="C83">
-        <v>-0.02973125696663539</v>
+        <v>-0.007012653948206365</v>
       </c>
       <c r="D83">
-        <v>0.02067826414090194</v>
+        <v>-0.0211535425961894</v>
       </c>
       <c r="E83">
-        <v>0.002311710902273697</v>
+        <v>0.006252078064171168</v>
       </c>
       <c r="F83">
-        <v>-0.05963429768646863</v>
+        <v>-0.01059704299084179</v>
       </c>
       <c r="G83">
-        <v>0.03665213812642527</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04845314037659801</v>
+      </c>
+      <c r="H83">
+        <v>0.04095045000591364</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2547132018371392</v>
+        <v>-0.227127070232006</v>
       </c>
       <c r="C85">
-        <v>-0.09453123282795886</v>
+        <v>-0.08857059851376971</v>
       </c>
       <c r="D85">
-        <v>-0.09190829374962707</v>
+        <v>-0.1497405846798205</v>
       </c>
       <c r="E85">
-        <v>-0.1190534188818653</v>
+        <v>0.002869514694861991</v>
       </c>
       <c r="F85">
-        <v>0.1046958769190687</v>
+        <v>-0.08314683103546273</v>
       </c>
       <c r="G85">
-        <v>0.02840763308514856</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1373760053026541</v>
+      </c>
+      <c r="H85">
+        <v>-0.08976884644756335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003009048581241487</v>
+        <v>-0.03117900440614851</v>
       </c>
       <c r="C86">
-        <v>0.0003417162014747089</v>
+        <v>-0.005475748552501363</v>
       </c>
       <c r="D86">
-        <v>0.02768728562001916</v>
+        <v>-0.03080060720525644</v>
       </c>
       <c r="E86">
-        <v>-0.02898358265746641</v>
+        <v>-0.002192904808794112</v>
       </c>
       <c r="F86">
-        <v>-0.07935313725074659</v>
+        <v>-0.003476483606737862</v>
       </c>
       <c r="G86">
-        <v>0.04991722733702905</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.0551057622271598</v>
+      </c>
+      <c r="H86">
+        <v>0.09510531817584242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.04086452821990336</v>
+        <v>-0.03040233505406258</v>
       </c>
       <c r="C87">
-        <v>0.00117576659122686</v>
+        <v>-0.005665126440565637</v>
       </c>
       <c r="D87">
-        <v>0.01921556181966809</v>
+        <v>-0.04100616656838284</v>
       </c>
       <c r="E87">
-        <v>-0.01159410920460579</v>
+        <v>-0.006947832833841919</v>
       </c>
       <c r="F87">
-        <v>-0.1144747592009368</v>
+        <v>-0.01021292648092107</v>
       </c>
       <c r="G87">
-        <v>0.04739963013566328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08296532676917087</v>
+      </c>
+      <c r="H87">
+        <v>0.07984333569150227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.011993926825665</v>
+        <v>-0.04102621023772571</v>
       </c>
       <c r="C88">
-        <v>0.0155785664425988</v>
+        <v>0.00965358745664492</v>
       </c>
       <c r="D88">
-        <v>-0.0141555627710744</v>
+        <v>-0.01783858849994631</v>
       </c>
       <c r="E88">
-        <v>-0.01800183441274716</v>
+        <v>-0.01262797571346425</v>
       </c>
       <c r="F88">
-        <v>-0.002075738156837152</v>
+        <v>-0.01763273479303593</v>
       </c>
       <c r="G88">
-        <v>0.05326190664018186</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.001146746893132902</v>
+      </c>
+      <c r="H88">
+        <v>0.0171162692396233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1093235164777605</v>
+        <v>-0.2350419933004655</v>
       </c>
       <c r="C89">
-        <v>0.1315322929844269</v>
+        <v>0.02463566874634888</v>
       </c>
       <c r="D89">
-        <v>-0.1826400334568057</v>
+        <v>0.3670589427463724</v>
       </c>
       <c r="E89">
-        <v>0.2460452799860844</v>
+        <v>0.02080027331104541</v>
       </c>
       <c r="F89">
-        <v>-0.09262369273037467</v>
+        <v>0.02449307708259314</v>
       </c>
       <c r="G89">
-        <v>-0.02096569823451537</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.005405136106662901</v>
+      </c>
+      <c r="H89">
+        <v>0.01332089095069118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09399078037774475</v>
+        <v>-0.1872192058242995</v>
       </c>
       <c r="C90">
-        <v>0.1794154546844358</v>
+        <v>0.02334461154787977</v>
       </c>
       <c r="D90">
-        <v>-0.1966120467930893</v>
+        <v>0.326979990915634</v>
       </c>
       <c r="E90">
-        <v>0.2547555767123572</v>
+        <v>0.01360426274608727</v>
       </c>
       <c r="F90">
-        <v>-0.0366480270734841</v>
+        <v>0.05274329522117573</v>
       </c>
       <c r="G90">
-        <v>0.01786589750535693</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01510587436131899</v>
+      </c>
+      <c r="H90">
+        <v>-0.05046610990839617</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3080741960908689</v>
+        <v>-0.2400062154850726</v>
       </c>
       <c r="C91">
-        <v>-0.124407079734083</v>
+        <v>-0.1004780221751287</v>
       </c>
       <c r="D91">
-        <v>-0.09024469969996392</v>
+        <v>-0.1286418532353367</v>
       </c>
       <c r="E91">
-        <v>-0.1172709105637778</v>
+        <v>0.01036073760686452</v>
       </c>
       <c r="F91">
-        <v>0.2147315985588029</v>
+        <v>-0.08184120096595127</v>
       </c>
       <c r="G91">
-        <v>-0.02792484584458155</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1481338789620364</v>
+      </c>
+      <c r="H91">
+        <v>-0.1633394272862957</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1740785215876181</v>
+        <v>-0.2400168447239416</v>
       </c>
       <c r="C92">
-        <v>0.1340955272493614</v>
+        <v>-0.0453172750193505</v>
       </c>
       <c r="D92">
-        <v>-0.343356778516622</v>
+        <v>0.2647864074734397</v>
       </c>
       <c r="E92">
-        <v>0.2329056934696367</v>
+        <v>0.001326660537522212</v>
       </c>
       <c r="F92">
-        <v>0.1659936143605078</v>
+        <v>-0.002692691500023478</v>
       </c>
       <c r="G92">
-        <v>0.529406081740586</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.006575416634809619</v>
+      </c>
+      <c r="H92">
+        <v>-0.1212683843868527</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09244431356470835</v>
+        <v>-0.2113487083869745</v>
       </c>
       <c r="C93">
-        <v>0.1693210610835025</v>
+        <v>0.01472256374558872</v>
       </c>
       <c r="D93">
-        <v>-0.2270847541631594</v>
+        <v>0.3423470490010388</v>
       </c>
       <c r="E93">
-        <v>0.3626017851711491</v>
+        <v>0.03481747255062372</v>
       </c>
       <c r="F93">
-        <v>0.006085856268870727</v>
+        <v>0.05664611770473997</v>
       </c>
       <c r="G93">
-        <v>-0.05949480387592479</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.007770304920760867</v>
+      </c>
+      <c r="H93">
+        <v>0.0123030975738804</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3025218839273104</v>
+        <v>-0.2792447834929657</v>
       </c>
       <c r="C94">
-        <v>-0.1518605209374186</v>
+        <v>-0.09492283556649871</v>
       </c>
       <c r="D94">
-        <v>-0.1809662006751573</v>
+        <v>-0.1319066183273584</v>
       </c>
       <c r="E94">
-        <v>-0.1378150321943843</v>
+        <v>0.03244913638531486</v>
       </c>
       <c r="F94">
-        <v>0.1713671725264916</v>
+        <v>-0.1682539976823922</v>
       </c>
       <c r="G94">
-        <v>-0.04653242955025483</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2416408534405363</v>
+      </c>
+      <c r="H94">
+        <v>-0.2875139944691099</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05113431261725565</v>
+        <v>-0.06034538521830136</v>
       </c>
       <c r="C95">
-        <v>-0.04805605425495742</v>
+        <v>-0.03646891202721181</v>
       </c>
       <c r="D95">
-        <v>0.0441714181712273</v>
+        <v>-0.0805350427431962</v>
       </c>
       <c r="E95">
-        <v>-0.05988073268722775</v>
+        <v>0.07804659016108303</v>
       </c>
       <c r="F95">
-        <v>-0.0781223373081075</v>
+        <v>-0.0006424093646007045</v>
       </c>
       <c r="G95">
-        <v>0.1986900919570031</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.05762828613719975</v>
+      </c>
+      <c r="H95">
+        <v>0.05436568741404226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1677152440683661</v>
+        <v>-0.1846642982738402</v>
       </c>
       <c r="C98">
-        <v>-0.05527236962528469</v>
+        <v>-0.05852919448803109</v>
       </c>
       <c r="D98">
-        <v>0.03065424655784297</v>
+        <v>-0.02507035825978021</v>
       </c>
       <c r="E98">
-        <v>0.1424714510868422</v>
+        <v>0.05394499182017678</v>
       </c>
       <c r="F98">
-        <v>-0.102199090631793</v>
+        <v>-0.01203584770735238</v>
       </c>
       <c r="G98">
-        <v>-0.3447757081641732</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08090086257267612</v>
+      </c>
+      <c r="H98">
+        <v>0.3412492503680328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.004910295265224148</v>
+        <v>-0.01743620333938087</v>
       </c>
       <c r="C101">
-        <v>-0.01576766585202084</v>
+        <v>-0.0005984238792832846</v>
       </c>
       <c r="D101">
-        <v>0.01319549475262343</v>
+        <v>-0.01263470318110665</v>
       </c>
       <c r="E101">
-        <v>-0.06618150726245403</v>
+        <v>-0.004659602668889391</v>
       </c>
       <c r="F101">
-        <v>-0.1747006052450185</v>
+        <v>-0.02322749941909331</v>
       </c>
       <c r="G101">
-        <v>0.09507587826772831</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1017302459041425</v>
+      </c>
+      <c r="H101">
+        <v>-0.0239520636724848</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1168511602731936</v>
+        <v>-0.1095441589657608</v>
       </c>
       <c r="C102">
-        <v>-0.05285738196003567</v>
+        <v>-0.03590907810324782</v>
       </c>
       <c r="D102">
-        <v>-0.03081677524103931</v>
+        <v>-0.07505131399747093</v>
       </c>
       <c r="E102">
-        <v>-0.07450640449141821</v>
+        <v>-0.002064972256202491</v>
       </c>
       <c r="F102">
-        <v>0.08177406608303354</v>
+        <v>-0.04520312574895517</v>
       </c>
       <c r="G102">
-        <v>-0.007062847036129342</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07717688105214437</v>
+      </c>
+      <c r="H102">
+        <v>-0.06249290175246779</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04416005527034599</v>
+        <v>-0.01652186806775264</v>
       </c>
       <c r="C103">
-        <v>-0.009134000888348669</v>
+        <v>-0.006452240504523114</v>
       </c>
       <c r="D103">
-        <v>-0.01139665898041686</v>
+        <v>-0.01388305536173033</v>
       </c>
       <c r="E103">
-        <v>-0.05381490419344778</v>
+        <v>-0.009145368427424689</v>
       </c>
       <c r="F103">
-        <v>-0.01281593729649155</v>
+        <v>-0.007354612612415712</v>
       </c>
       <c r="G103">
-        <v>0.03757519368935864</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.00164000065579122</v>
+      </c>
+      <c r="H103">
+        <v>-0.01208242472378458</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2027772473630068</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9536244194563301</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.1408797491741051</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02697977251099201</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.131022156711969</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.0210030678038646</v>
+      </c>
+      <c r="H104">
+        <v>-0.04868072239952296</v>
       </c>
     </row>
   </sheetData>
